--- a/src/main/resources/xlsx/cet/finish_period.xlsx
+++ b/src/main/resources/xlsx/cet/finish_period.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9369DC77-E819-4A53-9C55-4D864CF25E6F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C2128-5E16-4AAF-A0D6-F13239A0FC95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《name》学员完成学时情况表</t>
+    <t>name学员完成学时情况表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +426,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="B4" sqref="B4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/xlsx/cet/finish_period.xlsx
+++ b/src/main/resources/xlsx/cet/finish_period.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C2128-5E16-4AAF-A0D6-F13239A0FC95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所在单位及职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,13 +43,17 @@
   </si>
   <si>
     <t>name学员完成学时情况表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时任单位及职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,7 +421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -440,7 +439,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -458,7 +457,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -467,37 +466,37 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -506,28 +505,28 @@
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
